--- a/src/main/resources/updated.xlsx
+++ b/src/main/resources/updated.xlsx
@@ -49,7 +49,7 @@
   </si>
   <si>
     <t xml:space="preserve">Информация
-ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о поступлении в Республику Беларусь семян картошка с  2022-12-22 по 2022-12-22     </t>
+ГУ "Главная государственная инспекция по семеноводству, карантину и защите растений"  о поступлении в Республику Беларусь семян картофель с  2022-12-22 по 2022-12-22     </t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2022 Aspose Pty Ltd.</t>
@@ -555,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f6e3ecd3-5627-4363-af47-80fd27853424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ffc7cda1-7f20-4d5a-ad9c-0dc1e62b9bab}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2f981b2e-b708-435d-ab4f-1077aa4cc3a5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ac1dfba-46c5-4a09-8282-4f40aee096ba}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
